--- a/experiments/new_JOV_result_plots/cifar10_classification/grouped_results.xlsx
+++ b/experiments/new_JOV_result_plots/cifar10_classification/grouped_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -565,14 +565,14 @@
         <v>5.979999999999997</v>
       </c>
       <c r="I4" t="n">
-        <v>5.992000000000003</v>
+        <v>5.992000000000002</v>
       </c>
       <c r="J4" t="n">
         <v>0.1510629008062518</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>FP-net</t>
+          <t>E-PyrNet-R</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>FP-net (basic)</t>
+          <t>E-ResNet-R</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>FP-net</t>
+          <t>E-PyrNet-R</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
         <v>854938</v>
       </c>
       <c r="E7" t="n">
-        <v>6.233999999999999</v>
+        <v>6.234</v>
       </c>
       <c r="F7" t="n">
         <v>0.1847430648224722</v>
@@ -695,7 +695,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>PyrBlockNet</t>
+          <t>PyrNet</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>FP-net (basic)</t>
+          <t>E-ResNet-R</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>PyrBlockNet</t>
+          <t>PyrNet</t>
         </is>
       </c>
     </row>
@@ -818,7 +818,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>FP-net</t>
+          <t>E-PyrNet-R</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>FP-net (basic)</t>
+          <t>E-ResNet-R</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>PyrBlockNet</t>
+          <t>PyrNet</t>
         </is>
       </c>
     </row>
@@ -1057,14 +1057,14 @@
         <v>8.27</v>
       </c>
       <c r="I16" t="n">
-        <v>8.148000000000003</v>
+        <v>8.148000000000001</v>
       </c>
       <c r="J16" t="n">
         <v>0.3151507575748465</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>FP-net</t>
+          <t>E-PyrNet-R</t>
         </is>
       </c>
     </row>
@@ -1139,14 +1139,14 @@
         <v>8.099999999999996</v>
       </c>
       <c r="I18" t="n">
-        <v>8.234000000000005</v>
+        <v>8.234000000000004</v>
       </c>
       <c r="J18" t="n">
         <v>0.08905054744357295</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>FP-net (basic)</t>
+          <t>E-ResNet-R</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>PyrBlockNet</t>
+          <t>PyrNet</t>
         </is>
       </c>
     </row>
